--- a/sofaplayer/Bundesliga/FC Bayern München_stats.xlsx
+++ b/sofaplayer/Bundesliga/FC Bayern München_stats.xlsx
@@ -1035,43 +1035,43 @@
         <v>108579</v>
       </c>
       <c r="E2" t="n">
-        <v>7.9047619047619</v>
+        <v>7.9227272727273</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>1682</v>
+        <v>1768</v>
       </c>
       <c r="I2" t="n">
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>19.2936</v>
+        <v>20.2631</v>
       </c>
       <c r="L2" t="n">
-        <v>70.083333333333</v>
+        <v>68</v>
       </c>
       <c r="M2" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
         <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>29.268292682927</v>
+        <v>30.588235294118</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
         <v>100</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>2</v>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
@@ -1101,40 +1101,40 @@
         <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.076608</v>
+        <v>3.186777</v>
       </c>
       <c r="AB2" t="n">
-        <v>833</v>
+        <v>882</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE2" t="n">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="AF2" t="n">
-        <v>82.397003745318</v>
+        <v>82.300884955752</v>
       </c>
       <c r="AG2" t="n">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="AH2" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AI2" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AJ2" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AK2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>75.903614457831</v>
+        <v>75.58139534883701</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>68.571428571429</v>
+        <v>64.864864864865</v>
       </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="BB2" t="n">
-        <v>54.21686746988</v>
+        <v>52.840909090909</v>
       </c>
       <c r="BC2" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BD2" t="n">
-        <v>52.100840336134</v>
+        <v>51.181102362205</v>
       </c>
       <c r="BE2" t="n">
         <v>28</v>
       </c>
       <c r="BF2" t="n">
-        <v>59.574468085106</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG2" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="BH2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>166</v>
+        <v>174.3</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BT2" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="BW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX2" t="n">
         <v>2</v>
@@ -1254,19 +1254,19 @@
         <v>2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CA2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CB2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CC2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CD2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CS2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CT2" t="n">
         <v>8</v>
       </c>
       <c r="CU2" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CV2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="DA2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB2" t="n">
-        <v>58.333333333333</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="DG2" t="n">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ2" t="n">
         <v>2161497</v>
@@ -1391,16 +1391,16 @@
         <v>883537</v>
       </c>
       <c r="E3" t="n">
-        <v>7.525</v>
+        <v>7.4761904761905</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>1660</v>
+        <v>1750</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
@@ -1409,22 +1409,22 @@
         <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>11.0795</v>
+        <v>11.4694</v>
       </c>
       <c r="L3" t="n">
-        <v>127.69230769231</v>
+        <v>134.61538461538</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
-        <v>21.666666666667</v>
+        <v>20.634920634921</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1454,49 +1454,49 @@
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.2844844</v>
+        <v>5.5048624</v>
       </c>
       <c r="AB3" t="n">
-        <v>1265</v>
+        <v>1339</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="AF3" t="n">
-        <v>85.747126436782</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG3" t="n">
-        <v>870</v>
+        <v>917</v>
       </c>
       <c r="AH3" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AI3" t="n">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="AJ3" t="n">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL3" t="n">
-        <v>81.081081081081</v>
+        <v>79.48717948717901</v>
       </c>
       <c r="AM3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.428571428571</v>
+        <v>15.789473684211</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1505,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -1529,40 +1529,40 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AZ3" t="n">
-        <v>48.888888888889</v>
+        <v>49.484536082474</v>
       </c>
       <c r="BA3" t="n">
+        <v>94</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>42.342342342342</v>
+      </c>
+      <c r="BC3" t="n">
         <v>88</v>
       </c>
-      <c r="BB3" t="n">
-        <v>43.137254901961</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>82</v>
-      </c>
       <c r="BD3" t="n">
-        <v>44.808743169399</v>
+        <v>44.221105527638</v>
       </c>
       <c r="BE3" t="n">
         <v>6</v>
       </c>
       <c r="BF3" t="n">
-        <v>28.571428571429</v>
+        <v>26.086956521739</v>
       </c>
       <c r="BG3" t="n">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="BH3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BJ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BK3" t="n">
         <v>5</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO3" t="n">
         <v>16</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>150.5</v>
+        <v>157</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BT3" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CA3" t="n">
         <v>12</v>
       </c>
       <c r="CB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CC3" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="CD3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1664,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CS3" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="CT3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CU3" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="CV3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="DA3" t="n">
         <v>11</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="DG3" t="n">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1085381</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6142857142857</v>
+        <v>6.6133333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>3.0757</v>
       </c>
       <c r="L4" t="n">
-        <v>154.33333333333</v>
+        <v>157.66666666667</v>
       </c>
       <c r="M4" t="n">
         <v>14</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.61606846</v>
+        <v>0.62974396</v>
       </c>
       <c r="AB4" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="n">
-        <v>80.645161290323</v>
+        <v>80.314960629921</v>
       </c>
       <c r="AG4" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AH4" t="n">
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>44.444444444444</v>
       </c>
       <c r="BG4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BH4" t="n">
         <v>7</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>92.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS4" t="n">
         <v>3</v>
       </c>
       <c r="BT4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="CC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="DG4" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,124 +2459,124 @@
         <v>1010231</v>
       </c>
       <c r="E6" t="n">
-        <v>6.625</v>
+        <v>6.58</v>
       </c>
       <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>111</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.23248166</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>85.9375</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>64</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.15592196</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>84</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AQ6" t="n">
         <v>4</v>
       </c>
-      <c r="AE6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>87.234042553191</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>47</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3</v>
-      </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
@@ -2597,88 +2597,88 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>3</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>47.368421052632</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>47.368421052632</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>23</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>2</v>
       </c>
       <c r="CA6" t="n">
         <v>3</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CT6" t="n">
         <v>1</v>
       </c>
       <c r="CU6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="DB6" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DG6" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1861975</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8388888888889</v>
+        <v>6.8526315789474</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3189,13 +3189,13 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6886</v>
+        <v>4.7384</v>
       </c>
       <c r="L8" t="n">
-        <v>203.75</v>
+        <v>226.25</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" t="n">
         <v>14</v>
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>13.333333333333</v>
+        <v>12.903225806452</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.95904171</v>
+        <v>3.05530741</v>
       </c>
       <c r="AB8" t="n">
-        <v>741</v>
+        <v>813</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -3249,49 +3249,49 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="AF8" t="n">
-        <v>86.059479553903</v>
+        <v>85.05154639175301</v>
       </c>
       <c r="AG8" t="n">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="AH8" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AI8" t="n">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="AJ8" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>67.857142857143</v>
+        <v>70.967741935484</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>35</v>
+        <v>30.434782608696</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>31.428571428571</v>
+        <v>34.090909090909</v>
       </c>
       <c r="BA8" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="BB8" t="n">
-        <v>40.217391304348</v>
+        <v>41.441441441441</v>
       </c>
       <c r="BC8" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="BD8" t="n">
-        <v>41.666666666667</v>
+        <v>44</v>
       </c>
       <c r="BE8" t="n">
         <v>2</v>
       </c>
       <c r="BF8" t="n">
-        <v>25</v>
+        <v>18.181818181818</v>
       </c>
       <c r="BG8" t="n">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="BH8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ8" t="n">
         <v>3</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" t="n">
         <v>9</v>
@@ -3363,28 +3363,28 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>123.1</v>
+        <v>130.2</v>
       </c>
       <c r="BR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS8" t="n">
         <v>6</v>
       </c>
       <c r="BT8" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>17</v>
       </c>
       <c r="CA8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CB8" t="n">
         <v>12</v>
       </c>
       <c r="CC8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CD8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3447,35 +3447,35 @@
         <v>15</v>
       </c>
       <c r="CS8" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="CT8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CU8" t="n">
+        <v>65</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>9</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>31</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="DB8" t="n">
         <v>55</v>
       </c>
-      <c r="CV8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>58.823529411765</v>
-      </c>
       <c r="DC8" t="n">
         <v>0</v>
       </c>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="DG8" t="n">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>259117</v>
       </c>
       <c r="E9" t="n">
-        <v>7.6235294117647</v>
+        <v>7.5944444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>1301</v>
+        <v>1377</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -3548,7 +3548,7 @@
         <v>1.9847</v>
       </c>
       <c r="L9" t="n">
-        <v>1301</v>
+        <v>1377</v>
       </c>
       <c r="M9" t="n">
         <v>16</v>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.2804096</v>
+        <v>6.3231451</v>
       </c>
       <c r="AB9" t="n">
-        <v>1753</v>
+        <v>1861</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -3605,34 +3605,34 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1400</v>
+        <v>1478</v>
       </c>
       <c r="AF9" t="n">
-        <v>92.531394580304</v>
+        <v>92.14463840399</v>
       </c>
       <c r="AG9" t="n">
-        <v>1513</v>
+        <v>1604</v>
       </c>
       <c r="AH9" t="n">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="AI9" t="n">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="AJ9" t="n">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="AK9" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AL9" t="n">
-        <v>72.142857142857</v>
+        <v>70.94594594594599</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>28.571428571429</v>
+        <v>27.5</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="AR9" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AS9" t="n">
         <v>15</v>
@@ -3665,31 +3665,31 @@
         <v>1</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>70</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="BA9" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BB9" t="n">
-        <v>52</v>
+        <v>52.439024390244</v>
       </c>
       <c r="BC9" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BD9" t="n">
-        <v>57.377049180328</v>
+        <v>56.716417910448</v>
       </c>
       <c r="BE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF9" t="n">
-        <v>28.571428571429</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG9" t="n">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="BH9" t="n">
         <v>5</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>129.6</v>
+        <v>136.7</v>
       </c>
       <c r="BR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS9" t="n">
         <v>6</v>
       </c>
       <c r="BT9" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="CB9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC9" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="CD9" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>34</v>
       </c>
       <c r="CS9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CT9" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="CU9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CV9" t="n">
         <v>10</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="DA9" t="n">
         <v>13</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="DG9" t="n">
-        <v>1011</v>
+        <v>1062</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>187433</v>
       </c>
       <c r="E10" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>933</v>
+        <v>1002</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6249</v>
+        <v>4.7998</v>
       </c>
       <c r="L10" t="n">
-        <v>155.5</v>
+        <v>167</v>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>17.142857142857</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.5036423</v>
+        <v>3.5544988</v>
       </c>
       <c r="AB10" t="n">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
@@ -3961,22 +3961,22 @@
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.735177865613</v>
+        <v>88.518518518519</v>
       </c>
       <c r="AG10" t="n">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="AH10" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="n">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AJ10" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AK10" t="n">
         <v>11</v>
@@ -3988,19 +3988,19 @@
         <v>2</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>11.764705882353</v>
       </c>
       <c r="AO10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
@@ -4024,19 +4024,19 @@
         <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51.851851851852</v>
+        <v>48.275862068966</v>
       </c>
       <c r="BA10" t="n">
         <v>30</v>
       </c>
       <c r="BB10" t="n">
-        <v>40.540540540541</v>
+        <v>39.473684210526</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
       </c>
       <c r="BD10" t="n">
-        <v>44.776119402985</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="BH10" t="n">
         <v>7</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>112.8</v>
+        <v>119</v>
       </c>
       <c r="BR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS10" t="n">
         <v>11</v>
       </c>
       <c r="BT10" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CA10" t="n">
         <v>12</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="CC10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CD10" t="n">
         <v>12</v>
@@ -4159,13 +4159,13 @@
         <v>18</v>
       </c>
       <c r="CS10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CT10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CV10" t="n">
         <v>7</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="DG10" t="n">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,40 +4239,40 @@
         <v>184661</v>
       </c>
       <c r="E11" t="n">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>1112</v>
+        <v>1202</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.0347</v>
+        <v>1.1421</v>
       </c>
       <c r="L11" t="n">
-        <v>1112</v>
+        <v>601</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>7.6923076923077</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.65640635</v>
+        <v>2.70078065</v>
       </c>
       <c r="AB11" t="n">
-        <v>1103</v>
+        <v>1200</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4317,28 +4317,28 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="AF11" t="n">
-        <v>92.834562697576</v>
+        <v>93.143976493634</v>
       </c>
       <c r="AG11" t="n">
-        <v>949</v>
+        <v>1021</v>
       </c>
       <c r="AH11" t="n">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="AI11" t="n">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="AJ11" t="n">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AK11" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>72.093023255814</v>
+        <v>73.913043478261</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -4347,22 +4347,22 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU11" t="n">
         <v>3</v>
@@ -4383,16 +4383,16 @@
         <v>100</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BB11" t="n">
-        <v>50.49504950495</v>
+        <v>49.532710280374</v>
       </c>
       <c r="BC11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD11" t="n">
-        <v>59.322033898305</v>
+        <v>56.923076923077</v>
       </c>
       <c r="BE11" t="n">
         <v>16</v>
@@ -4401,13 +4401,13 @@
         <v>38.095238095238</v>
       </c>
       <c r="BG11" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BH11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO11" t="n">
         <v>9</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>126.9</v>
+        <v>134.9</v>
       </c>
       <c r="BR11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4458,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA11" t="n">
         <v>5</v>
       </c>
       <c r="CB11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC11" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CD11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="CU11" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="CV11" t="n">
         <v>26</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DA11" t="n">
         <v>10</v>
       </c>
       <c r="DB11" t="n">
-        <v>55.555555555556</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="DG11" t="n">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ11" t="n">
         <v>2161506</v>
@@ -4951,16 +4951,16 @@
         <v>1129935</v>
       </c>
       <c r="E13" t="n">
-        <v>6.6</v>
+        <v>6.6375</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8853</v>
+        <v>0.9761</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
         <v>2</v>
@@ -5017,10 +5017,10 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.48477221</v>
+        <v>1.57896091</v>
       </c>
       <c r="AB13" t="n">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="AC13" t="n">
         <v>3</v>
@@ -5029,28 +5029,28 @@
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="AF13" t="n">
-        <v>93.17548746518101</v>
+        <v>93.22493224932199</v>
       </c>
       <c r="AG13" t="n">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="AH13" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AI13" t="n">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AJ13" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>68.75</v>
+        <v>69.69696969697</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -5077,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>37.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
-        <v>37.931034482759</v>
+        <v>38.983050847458</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>32.65306122449</v>
+        <v>34</v>
       </c>
       <c r="BE13" t="n">
         <v>6</v>
@@ -5113,7 +5113,7 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG13" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BH13" t="n">
         <v>10</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>99</v>
+        <v>106.2</v>
       </c>
       <c r="BR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5167,22 +5167,22 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ13" t="n">
         <v>5</v>
       </c>
       <c r="CA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB13" t="n">
         <v>7</v>
       </c>
       <c r="CC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CD13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DA13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB13" t="n">
-        <v>87.5</v>
+        <v>88.888888888889</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="DG13" t="n">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>843665</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6666666666667</v>
+        <v>6.6714285714286</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6080,37 +6080,37 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.45101982</v>
+        <v>0.53825912</v>
       </c>
       <c r="AB16" t="n">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="n">
-        <v>91.878172588832</v>
+        <v>91.627906976744</v>
       </c>
       <c r="AG16" t="n">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AH16" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AJ16" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
         <v>3</v>
@@ -6128,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         <v>41.666666666667</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
-        <v>48.571428571429</v>
+        <v>50</v>
       </c>
       <c r="BC16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
-        <v>50</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE16" t="n">
         <v>4</v>
@@ -6179,7 +6179,7 @@
         <v>44.444444444444</v>
       </c>
       <c r="BG16" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BH16" t="n">
         <v>2</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>40</v>
+        <v>46.7</v>
       </c>
       <c r="BR16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS16" t="n">
         <v>12</v>
@@ -6317,10 +6317,10 @@
         <v>4</v>
       </c>
       <c r="DA16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB16" t="n">
-        <v>66.666666666667</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="DG16" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,16 +6373,16 @@
         <v>896569</v>
       </c>
       <c r="E17" t="n">
-        <v>7.2666666666667</v>
+        <v>7.2846153846154</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>0.352</v>
       </c>
       <c r="L17" t="n">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -6439,10 +6439,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.01393438</v>
+        <v>1.03616658</v>
       </c>
       <c r="AB17" t="n">
-        <v>839</v>
+        <v>954</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6451,52 +6451,52 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>704</v>
+        <v>801</v>
       </c>
       <c r="AF17" t="n">
-        <v>95.006747638327</v>
+        <v>94.905213270142</v>
       </c>
       <c r="AG17" t="n">
-        <v>741</v>
+        <v>844</v>
       </c>
       <c r="AH17" t="n">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="AI17" t="n">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="AJ17" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60.869565217391</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP17" t="n">
         <v>10</v>
       </c>
-      <c r="AL17" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6517,16 +6517,16 @@
         <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BB17" t="n">
-        <v>60.9375</v>
+        <v>59.701492537313</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
-        <v>52.631578947368</v>
+        <v>50</v>
       </c>
       <c r="BE17" t="n">
         <v>29</v>
@@ -6535,7 +6535,7 @@
         <v>64.444444444444</v>
       </c>
       <c r="BG17" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BH17" t="n">
         <v>6</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO17" t="n">
         <v>8</v>
@@ -6565,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>87.2</v>
+        <v>94.7</v>
       </c>
       <c r="BR17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="CD17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="CU17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CV17" t="n">
         <v>16</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="DA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB17" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,16 +6688,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="DG17" t="n">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="DH17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="DI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DJ17" t="n">
         <v>2161542</v>
@@ -7085,16 +7085,16 @@
         <v>227672</v>
       </c>
       <c r="E19" t="n">
-        <v>7.2055555555556</v>
+        <v>7.2263157894737</v>
       </c>
       <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="n">
         <v>18</v>
       </c>
-      <c r="G19" t="n">
-        <v>17</v>
-      </c>
       <c r="H19" t="n">
-        <v>1483</v>
+        <v>1573</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -7106,7 +7106,7 @@
         <v>0.7083</v>
       </c>
       <c r="L19" t="n">
-        <v>741.5</v>
+        <v>786.5</v>
       </c>
       <c r="M19" t="n">
         <v>8</v>
@@ -7151,10 +7151,10 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.9153418</v>
+        <v>0.937801</v>
       </c>
       <c r="AB19" t="n">
-        <v>1575</v>
+        <v>1664</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
@@ -7163,28 +7163,28 @@
         <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1321</v>
+        <v>1395</v>
       </c>
       <c r="AF19" t="n">
-        <v>96.07272727272699</v>
+        <v>96.074380165289</v>
       </c>
       <c r="AG19" t="n">
-        <v>1375</v>
+        <v>1452</v>
       </c>
       <c r="AH19" t="n">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="AI19" t="n">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="AJ19" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>65.30612244898001</v>
+        <v>64.150943396226</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7193,22 +7193,22 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7223,37 +7223,37 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BB19" t="n">
-        <v>55.102040816327</v>
+        <v>56.190476190476</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
-        <v>43.396226415094</v>
+        <v>46.551724137931</v>
       </c>
       <c r="BE19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BF19" t="n">
-        <v>68.888888888889</v>
+        <v>68.08510638297901</v>
       </c>
       <c r="BG19" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BH19" t="n">
         <v>21</v>
       </c>
       <c r="BI19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO19" t="n">
         <v>15</v>
@@ -7277,16 +7277,16 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>129.7</v>
+        <v>137.3</v>
       </c>
       <c r="BR19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS19" t="n">
         <v>3</v>
       </c>
       <c r="BT19" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7310,13 +7310,13 @@
         <v>1</v>
       </c>
       <c r="CB19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC19" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CD19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7361,16 +7361,16 @@
         <v>5</v>
       </c>
       <c r="CS19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT19" t="n">
         <v>1</v>
       </c>
       <c r="CU19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CV19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="DA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB19" t="n">
-        <v>70.58823529411799</v>
+        <v>68.421052631579</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,16 +7400,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="DG19" t="n">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="DH19" t="n">
         <v>19</v>
       </c>
       <c r="DI19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DJ19" t="n">
         <v>2161498</v>
@@ -7441,16 +7441,16 @@
         <v>927407</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9615384615385</v>
+        <v>6.95</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>977</v>
+        <v>1046</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>1.0445</v>
       </c>
       <c r="L20" t="n">
-        <v>488.5</v>
+        <v>523</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -7507,10 +7507,10 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.6860416</v>
+        <v>1.7092147</v>
       </c>
       <c r="AB20" t="n">
-        <v>889</v>
+        <v>954</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
@@ -7519,52 +7519,52 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="AF20" t="n">
-        <v>90.697674418605</v>
+        <v>89.98646820027101</v>
       </c>
       <c r="AG20" t="n">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="AH20" t="n">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="AI20" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AJ20" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>62.5</v>
+        <v>55.555555555556</v>
       </c>
       <c r="AM20" t="n">
         <v>3</v>
       </c>
       <c r="AN20" t="n">
-        <v>15.789473684211</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ20" t="n">
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT20" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7585,31 +7585,31 @@
         <v>80</v>
       </c>
       <c r="BA20" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BB20" t="n">
-        <v>59.016393442623</v>
+        <v>60</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>55.882352941176</v>
+        <v>56.756756756757</v>
       </c>
       <c r="BE20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF20" t="n">
-        <v>62.962962962963</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="BG20" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="BH20" t="n">
         <v>5</v>
       </c>
       <c r="BI20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ20" t="n">
         <v>3</v>
@@ -7633,16 +7633,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>90.5</v>
+        <v>97.3</v>
       </c>
       <c r="BR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS20" t="n">
         <v>4</v>
       </c>
       <c r="BT20" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>4</v>
       </c>
       <c r="CC20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CD20" t="n">
         <v>21</v>
@@ -7720,10 +7720,10 @@
         <v>5</v>
       </c>
       <c r="CT20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CU20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV20" t="n">
         <v>10</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="DA20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB20" t="n">
-        <v>60</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="DG20" t="n">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8153,16 +8153,16 @@
         <v>355492</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8352941176471</v>
+        <v>6.8277777777778</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>1189</v>
+        <v>1279</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -8174,7 +8174,7 @@
         <v>1.7751</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5</v>
+        <v>639.5</v>
       </c>
       <c r="M22" t="n">
         <v>12</v>
@@ -8219,103 +8219,103 @@
         <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.63369556</v>
+        <v>2.74413656</v>
       </c>
       <c r="AB22" t="n">
-        <v>1101</v>
+        <v>1196</v>
       </c>
       <c r="AC22" t="n">
         <v>4</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>714</v>
+        <v>781</v>
       </c>
       <c r="AF22" t="n">
-        <v>88.695652173913</v>
+        <v>89.15525114155299</v>
       </c>
       <c r="AG22" t="n">
-        <v>805</v>
+        <v>876</v>
       </c>
       <c r="AH22" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AI22" t="n">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="AJ22" t="n">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>45.454545454545</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AM22" t="n">
         <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>23.809523809524</v>
+        <v>22.727272727273</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>28</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41.666666666667</v>
+      </c>
+      <c r="BA22" t="n">
         <v>56</v>
       </c>
-      <c r="AS22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>54</v>
-      </c>
       <c r="BB22" t="n">
-        <v>43.90243902439</v>
+        <v>42.748091603053</v>
       </c>
       <c r="BC22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD22" t="n">
-        <v>44.210526315789</v>
+        <v>43.137254901961</v>
       </c>
       <c r="BE22" t="n">
         <v>12</v>
       </c>
       <c r="BF22" t="n">
-        <v>42.857142857143</v>
+        <v>41.379310344828</v>
       </c>
       <c r="BG22" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="BH22" t="n">
         <v>16</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO22" t="n">
         <v>8</v>
@@ -8345,16 +8345,16 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>116.2</v>
+        <v>122.9</v>
       </c>
       <c r="BR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS22" t="n">
         <v>6</v>
       </c>
       <c r="BT22" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>4</v>
       </c>
       <c r="CB22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CD22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8426,19 +8426,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS22" t="n">
         <v>24</v>
       </c>
-      <c r="CS22" t="n">
+      <c r="CT22" t="n">
         <v>22</v>
       </c>
-      <c r="CT22" t="n">
-        <v>21</v>
-      </c>
       <c r="CU22" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CV22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DA22" t="n">
         <v>15</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="DG22" t="n">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -9219,16 +9219,16 @@
         <v>8959</v>
       </c>
       <c r="E25" t="n">
-        <v>6.9294117647059</v>
+        <v>6.9222222222222</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>1530</v>
+        <v>1575</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9283,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02807932</v>
+        <v>0.02822597</v>
       </c>
       <c r="AB25" t="n">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9295,16 +9295,16 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="AF25" t="n">
-        <v>80.310880829016</v>
+        <v>80.69883527454201</v>
       </c>
       <c r="AG25" t="n">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="AH25" t="n">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="AI25" t="n">
         <v>47</v>
@@ -9313,10 +9313,10 @@
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>50.446428571429</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9334,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -9379,7 +9379,7 @@
         <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>117.8</v>
+        <v>124.6</v>
       </c>
       <c r="BR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9445,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="CD25" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>6</v>
       </c>
       <c r="CM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="CN25" t="n">
         <v>20</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>19</v>
       </c>
       <c r="CO25" t="n">
         <v>6</v>
@@ -9514,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="DA25" t="n">
         <v>0</v>
@@ -9532,13 +9532,13 @@
         <v>4</v>
       </c>
       <c r="DF25" t="n">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="DG25" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DH25" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
@@ -9575,16 +9575,16 @@
         <v>1130647</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>7.12</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -9639,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01764382</v>
+        <v>0.01956006</v>
       </c>
       <c r="AB26" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9651,109 +9651,109 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AF26" t="n">
-        <v>85.02994011976</v>
+        <v>84.23913043478299</v>
       </c>
       <c r="AG26" t="n">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AH26" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
         <v>9</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>46.808510638298</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>26</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>6</v>
       </c>
       <c r="BN26" t="n">
         <v>3</v>
@@ -9765,16 +9765,16 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>28</v>
+        <v>35.6</v>
       </c>
       <c r="BR26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CD26" t="n">
         <v>6</v>
@@ -9816,25 +9816,25 @@
         <v>1</v>
       </c>
       <c r="CH26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI26" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
         <v>5</v>
       </c>
-      <c r="CJ26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>4</v>
-      </c>
       <c r="CN26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO26" t="n">
         <v>4</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="DA26" t="n">
         <v>0</v>
@@ -9888,13 +9888,13 @@
         <v>2</v>
       </c>
       <c r="DF26" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="DG26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="DH26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>0.4137</v>
+        <v>1.0197</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/FC Bayern München_stats.xlsx
+++ b/sofaplayer/Bundesliga/FC Bayern München_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>20.2631</v>
+        <v>20.2661</v>
       </c>
       <c r="L2" t="n">
         <v>68</v>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.186777</v>
+        <v>3.180958</v>
       </c>
       <c r="AB2" t="n">
         <v>882</v>
@@ -1122,10 +1122,10 @@
         <v>565</v>
       </c>
       <c r="AH2" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI2" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ2" t="n">
         <v>204</v>
@@ -1409,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>11.4694</v>
+        <v>11.5136</v>
       </c>
       <c r="L3" t="n">
         <v>134.61538461538</v>
@@ -1457,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5048624</v>
+        <v>5.5017144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -1505,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -1538,13 +1538,13 @@
         <v>94</v>
       </c>
       <c r="BB3" t="n">
-        <v>42.342342342342</v>
+        <v>42.152466367713</v>
       </c>
       <c r="BC3" t="n">
         <v>88</v>
       </c>
       <c r="BD3" t="n">
-        <v>44.221105527638</v>
+        <v>44</v>
       </c>
       <c r="BE3" t="n">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>26.086956521739</v>
       </c>
       <c r="BG3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BH3" t="n">
         <v>22</v>
@@ -1616,7 +1616,7 @@
         <v>12</v>
       </c>
       <c r="CB3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CC3" t="n">
         <v>61</v>
@@ -1673,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="CU3" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CV3" t="n">
         <v>17</v>
@@ -1747,7 +1747,7 @@
         <v>1085381</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6133333333333</v>
+        <v>6.6066666666667</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="BR4" t="n">
         <v>15</v>
@@ -2459,7 +2459,7 @@
         <v>1010231</v>
       </c>
       <c r="E6" t="n">
-        <v>6.58</v>
+        <v>6.56</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.23248166</v>
+        <v>0.22885896</v>
       </c>
       <c r="AB6" t="n">
         <v>111</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="BR6" t="n">
         <v>5</v>
@@ -3171,7 +3171,7 @@
         <v>1861975</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8526315789474</v>
+        <v>6.8473684210526</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
@@ -3237,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.05530741</v>
+        <v>3.04608571</v>
       </c>
       <c r="AB8" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -3249,28 +3249,28 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AF8" t="n">
-        <v>85.05154639175301</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AH8" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ8" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>70.967741935484</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="BR8" t="n">
         <v>19</v>
@@ -3399,10 +3399,10 @@
         <v>12</v>
       </c>
       <c r="CC8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CD8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="DA8" t="n">
         <v>11</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="DG8" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>259117</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5944444444444</v>
+        <v>7.6</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.3231451</v>
+        <v>6.3322921</v>
       </c>
       <c r="AB9" t="n">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -3605,28 +3605,28 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="AF9" t="n">
-        <v>92.14463840399</v>
+        <v>92.14953271028</v>
       </c>
       <c r="AG9" t="n">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AH9" t="n">
         <v>519</v>
       </c>
       <c r="AI9" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ9" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK9" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL9" t="n">
-        <v>70.94594594594599</v>
+        <v>71.140939597315</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>136.7</v>
+        <v>136.8</v>
       </c>
       <c r="BR9" t="n">
         <v>18</v>
@@ -3755,10 +3755,10 @@
         <v>6</v>
       </c>
       <c r="CC9" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CD9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA9" t="n">
         <v>13</v>
@@ -3845,7 +3845,7 @@
         <v>542</v>
       </c>
       <c r="DG9" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.5544988</v>
+        <v>3.5480995</v>
       </c>
       <c r="AB10" t="n">
         <v>709</v>
@@ -4251,7 +4251,7 @@
         <v>1202</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.70078065</v>
+        <v>2.70060705</v>
       </c>
       <c r="AB11" t="n">
         <v>1200</v>
@@ -4335,10 +4335,10 @@
         <v>271</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL11" t="n">
-        <v>73.913043478261</v>
+        <v>73.333333333333</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DA11" t="n">
         <v>10</v>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.57896091</v>
+        <v>1.57896071</v>
       </c>
       <c r="AB13" t="n">
         <v>904</v>
@@ -5300,23 +5300,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Felipe Chávez</t>
+          <t>David Daiber</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1482457</v>
+        <v>1489220</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5324,14 +5324,12 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.0161</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -5373,37 +5371,37 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.37432656</v>
+        <v>0.0129608</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AF14" t="n">
         <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>100</v>
@@ -5427,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -5445,22 +5443,22 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -5469,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
@@ -5499,113 +5497,113 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>20.2</v>
+        <v>6.8</v>
       </c>
       <c r="BR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>3</v>
       </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>1</v>
-      </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
@@ -5622,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DG14" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5634,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2587531</v>
+        <v>2546138</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -5656,23 +5654,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>David Daiber</t>
+          <t>Alphonso Davies</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1489220</v>
+        <v>843665</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8</v>
+        <v>6.6857142857143</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5680,12 +5678,14 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.1272</v>
+      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5724,67 +5724,67 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0129608</v>
+        <v>0.53776362</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>91.627906976744</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
         <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5799,43 +5799,43 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>100</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>100</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5847,28 +5847,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6.8</v>
+        <v>46.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5880,19 +5880,19 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5934,19 +5934,19 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5958,37 +5958,37 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>90</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>125</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>3</v>
       </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>10</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>4</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ15" t="n">
-        <v>2546138</v>
+        <v>2535116</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6010,266 +6010,266 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alphonso Davies</t>
+          <t>Min-jae Kim</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>843665</v>
+        <v>896569</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6714285714286</v>
+        <v>7.3076923076923</v>
       </c>
       <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>865</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="L16" t="n">
+        <v>865</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.03623808</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>954</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>801</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>94.905213270142</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>844</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>411</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>115</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>60.606060606061</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>52.380952380952</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>64.444444444444</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>95</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>43</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>307</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1272</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.53825912</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>295</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>197</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>91.627906976744</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>215</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>111</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>41.666666666667</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51.851851851852</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>18</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>4</v>
-      </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CS16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="CV16" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="DA16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB16" t="n">
-        <v>71.428571428571</v>
+        <v>60</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,19 +6332,19 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="DG16" t="n">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DI16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2535116</v>
+        <v>2161542</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6366,143 +6366,143 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Min-jae Kim</t>
+          <t>Dayot Upamecano</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>896569</v>
+        <v>798583</v>
       </c>
       <c r="E17" t="n">
-        <v>7.2846153846154</v>
+        <v>7.0882352941176</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>865</v>
+        <v>1270</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.352</v>
+        <v>0.9536</v>
       </c>
       <c r="L17" t="n">
-        <v>865</v>
+        <v>1270</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.6975540099999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1298</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1055</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>91.898954703833</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1148</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>555</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.03616658</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>954</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>801</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>94.905213270142</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>844</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>411</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>390</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>115</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60.869565217391</v>
-      </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AS17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT17" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -6511,43 +6511,43 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA17" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="BB17" t="n">
-        <v>59.701492537313</v>
+        <v>55.769230769231</v>
       </c>
       <c r="BC17" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="BD17" t="n">
-        <v>50</v>
+        <v>55.932203389831</v>
       </c>
       <c r="BE17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BF17" t="n">
-        <v>64.444444444444</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG17" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="BH17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6559,28 +6559,28 @@
         <v>4</v>
       </c>
       <c r="BO17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>94.7</v>
+        <v>120.5</v>
       </c>
       <c r="BR17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6592,25 +6592,25 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC17" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="CD17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
         <v>0</v>
@@ -6622,43 +6622,43 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS17" t="n">
         <v>7</v>
       </c>
-      <c r="CK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>0</v>
-      </c>
       <c r="CT17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU17" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="CV17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="DA17" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="DB17" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>432</v>
+        <v>587</v>
       </c>
       <c r="DG17" t="n">
-        <v>412</v>
+        <v>561</v>
       </c>
       <c r="DH17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="DI17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2161542</v>
+        <v>2161540</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6722,341 +6722,341 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dayot Upamecano</t>
+          <t>Jonathan Tah</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>798583</v>
+        <v>227672</v>
       </c>
       <c r="E18" t="n">
-        <v>7.0882352941176</v>
+        <v>7.2315789473684</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1573</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7083</v>
+      </c>
+      <c r="L18" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9385582</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1663</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1395</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>96.074380165289</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1452</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>710</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>685</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>171</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>64.150943396226</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>66</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>56.730769230769</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>47.368421052632</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>32</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>68.08510638297901</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>76</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO18" t="n">
         <v>15</v>
       </c>
-      <c r="H18" t="n">
-        <v>1270</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.9536</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1270</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>19</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>57</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
         <v>7</v>
       </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.6975540099999999</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1055</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>91.898954703833</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>555</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>39</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>74</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT18" t="n">
+      <c r="CA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC18" t="n">
         <v>38</v>
       </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>58</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>55.769230769231</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>33</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>55.932203389831</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>25</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>120</v>
-      </c>
-      <c r="BH18" t="n">
+      <c r="CD18" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>45</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>15</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>53</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>68.421052631579</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>728</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>724</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="DI18" t="n">
         <v>12</v>
       </c>
-      <c r="BI18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>93</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>52</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>30</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>46</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>78</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>18</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>587</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>561</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>4</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2161540</v>
+        <v>2161498</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,140 +7078,140 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jonathan Tah</t>
+          <t>Josip Stanišić</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>227672</v>
+        <v>927407</v>
       </c>
       <c r="E19" t="n">
-        <v>7.2263157894737</v>
+        <v>6.9428571428571</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>1573</v>
+        <v>1046</v>
       </c>
       <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0445</v>
+      </c>
+      <c r="L19" t="n">
+        <v>523</v>
+      </c>
+      <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.7083</v>
-      </c>
-      <c r="L19" t="n">
-        <v>786.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8</v>
-      </c>
       <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.7094835</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>954</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>665</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>89.98646820027101</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>739</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>220</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>445</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>225</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.937801</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1664</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1395</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>96.074380165289</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1452</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>710</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>685</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>171</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>64.150943396226</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
       <c r="AR19" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AU19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>1</v>
@@ -7223,70 +7223,70 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ19" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="BA19" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="BB19" t="n">
-        <v>56.190476190476</v>
+        <v>58.461538461538</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
-        <v>46.551724137931</v>
+        <v>56.756756756757</v>
       </c>
       <c r="BE19" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="BF19" t="n">
-        <v>68.08510638297901</v>
+        <v>60.714285714286</v>
       </c>
       <c r="BG19" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="BH19" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BI19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS19" t="n">
         <v>4</v>
       </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>137.3</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>3</v>
-      </c>
       <c r="BT19" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7304,19 +7304,19 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC19" t="n">
         <v>38</v>
       </c>
       <c r="CD19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7358,19 +7358,19 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS19" t="n">
         <v>5</v>
       </c>
-      <c r="CS19" t="n">
-        <v>4</v>
-      </c>
       <c r="CT19" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="CU19" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="CV19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="DA19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="DB19" t="n">
-        <v>68.421052631579</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>728</v>
+        <v>240</v>
       </c>
       <c r="DG19" t="n">
-        <v>724</v>
+        <v>499</v>
       </c>
       <c r="DH19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2161498</v>
+        <v>2161520</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,41 +7434,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Josip Stanišić</t>
+          <t>Raphaël Guerreiro</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>927407</v>
+        <v>246999</v>
       </c>
       <c r="E20" t="n">
-        <v>6.95</v>
+        <v>6.9363636363636</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1046</v>
+        <v>445</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1.0445</v>
+        <v>1.6389</v>
       </c>
       <c r="L20" t="n">
-        <v>523</v>
+        <v>148.33333333333</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -7486,19 +7486,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -7507,244 +7507,244 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.7092147</v>
+        <v>0.79230878</v>
       </c>
       <c r="AB20" t="n">
-        <v>954</v>
+        <v>356</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>275</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>90.759075907591</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>303</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>202</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>124</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>44</v>
+      </c>
+      <c r="BC20" t="n">
         <v>10</v>
       </c>
-      <c r="AE20" t="n">
-        <v>665</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>89.98646820027101</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>739</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>221</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>444</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>224</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="BD20" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>45</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>28</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD20" t="n">
         <v>3</v>
       </c>
-      <c r="AN20" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
         <v>11</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="CS20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA20" t="n">
         <v>6</v>
       </c>
-      <c r="AT20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>39</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>56.756756756757</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>64.28571428571399</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>113</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>74</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>38</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>21</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>26</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>10</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>36</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>7</v>
-      </c>
       <c r="DB20" t="n">
-        <v>63.636363636364</v>
+        <v>100</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,19 +7756,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="DG20" t="n">
-        <v>498</v>
+        <v>227</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2161520</v>
+        <v>2192109</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,341 +7790,341 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Raphaël Guerreiro</t>
+          <t>Konrad Laimer</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>246999</v>
+        <v>355492</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9363636363636</v>
+        <v>6.8277777777778</v>
       </c>
       <c r="F21" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1279</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.7751</v>
+      </c>
+      <c r="L21" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.74404056</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1196</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>781</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>89.15525114155299</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>876</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>235</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>546</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>335</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>47.058823529412</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>22.727272727273</v>
+      </c>
+      <c r="AO21" t="n">
         <v>11</v>
       </c>
-      <c r="G21" t="n">
+      <c r="AP21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>41.666666666667</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>56</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>42.424242424242</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>42.718446601942</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>41.379310344828</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>176</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA21" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>445</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.6389</v>
-      </c>
-      <c r="L21" t="n">
-        <v>148.33333333333</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="CB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
         <v>6</v>
       </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.79230878</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>356</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>275</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>90.759075907591</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>303</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>202</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>124</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ21" t="n">
+      <c r="CK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>22</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>76</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>17</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>53.571428571429</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>270</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>606</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>4</v>
       </c>
-      <c r="AR21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>44</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>45</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>28</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>11</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>14</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>6</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>76</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>227</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ21" t="n">
-        <v>2192109</v>
+        <v>2161504</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8146,188 +8146,188 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Konrad Laimer</t>
+          <t>Hiroki Itō</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>355492</v>
+        <v>873106</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8277777777778</v>
+        <v>6.8666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>1279</v>
+        <v>452</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.7751</v>
+        <v>0.8088</v>
       </c>
       <c r="L22" t="n">
-        <v>639.5</v>
+        <v>452</v>
       </c>
       <c r="M22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.56974004</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>483</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>358</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>89.054726368159</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>402</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>198</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="n">
         <v>12</v>
       </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AL22" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BC22" t="n">
         <v>4</v>
       </c>
-      <c r="AA22" t="n">
-        <v>2.74413656</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1196</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>781</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>89.15525114155299</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>876</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>234</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>547</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>335</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>47.058823529412</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>22.727272727273</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>61</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>41.666666666667</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>56</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>42.748091603053</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>44</v>
-      </c>
       <c r="BD22" t="n">
-        <v>43.137254901961</v>
+        <v>40</v>
       </c>
       <c r="BE22" t="n">
         <v>12</v>
       </c>
       <c r="BF22" t="n">
-        <v>41.379310344828</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BG22" t="n">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="BH22" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BI22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BJ22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL22" t="n">
         <v>0</v>
@@ -8336,109 +8336,109 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>44</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU22" t="n">
         <v>8</v>
       </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>122.9</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>95</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>30</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>24</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>22</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>75</v>
-      </c>
       <c r="CV22" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="DA22" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DB22" t="n">
-        <v>53.571428571429</v>
+        <v>100</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="DG22" t="n">
-        <v>607</v>
+        <v>229</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2161504</v>
+        <v>2469453</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8502,113 +8502,111 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hiroki Itō</t>
+          <t>Cassiano Kiala</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>873106</v>
+        <v>1994978</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>452</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.8088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.00017555</v>
+      </c>
+      <c r="AB23" t="n">
         <v>3</v>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.56974004</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>483</v>
-      </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>358</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>89.054726368159</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>46.153846153846</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8617,25 +8615,25 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
@@ -8647,37 +8645,37 @@
         <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>66.666666666667</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>85.71428571428601</v>
+        <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="BH23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -8695,28 +8693,28 @@
         <v>0</v>
       </c>
       <c r="BO23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="BR23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
       </c>
       <c r="BV23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
@@ -8728,19 +8726,19 @@
         <v>0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CA23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB23" t="n">
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="CD23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8758,10 +8756,10 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -8782,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8806,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8824,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="DG23" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -8836,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2469453</v>
+        <v>2546135</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8858,23 +8856,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cassiano Kiala</t>
+          <t>Manuel Neuer</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1994978</v>
+        <v>8959</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6.9222222222222</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>1575</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,109 +8927,109 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00017555</v>
+        <v>0.02822446</v>
       </c>
       <c r="AB24" t="n">
+        <v>741</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>485</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>80.69883527454201</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>601</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>438</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>47</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50.446428571429</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>3</v>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
         <v>100</v>
       </c>
-      <c r="AG24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9043,28 +9041,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0</v>
+        <v>124.6</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9091,10 +9089,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="CD24" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9103,31 +9101,31 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CI24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CK24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CM24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9160,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9175,29 +9173,31 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DF24" t="n">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="DG24" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2546135</v>
+        <v>2161536</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL24" t="inlineStr"/>
+      <c r="DL24" t="n">
+        <v>0.2948</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9212,23 +9212,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Manuel Neuer</t>
+          <t>Jonas Urbig</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8959</v>
+        <v>1130647</v>
       </c>
       <c r="E25" t="n">
-        <v>6.9222222222222</v>
+        <v>7.12</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>1575</v>
+        <v>405</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9283,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02822597</v>
+        <v>0.01955255</v>
       </c>
       <c r="AB25" t="n">
-        <v>741</v>
+        <v>232</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9295,28 +9295,28 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>485</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="n">
-        <v>80.69883527454201</v>
+        <v>84.23913043478299</v>
       </c>
       <c r="AG25" t="n">
-        <v>601</v>
+        <v>184</v>
       </c>
       <c r="AH25" t="n">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="AI25" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>50.446428571429</v>
+        <v>46.153846153846</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9334,157 +9334,157 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BN25" t="n">
         <v>3</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="BO25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>29</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH25" t="n">
         <v>3</v>
       </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>122</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>25</v>
-      </c>
-      <c r="BN25" t="n">
+      <c r="CI25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
         <v>5</v>
       </c>
-      <c r="BO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>124.6</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>116</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>72</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>51</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>20</v>
-      </c>
-      <c r="CI25" t="n">
+      <c r="CN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO25" t="n">
         <v>4</v>
       </c>
-      <c r="CJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>21</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>20</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>6</v>
-      </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ25" t="n">
         <v>0</v>
@@ -9499,10 +9499,10 @@
         <v>0</v>
       </c>
       <c r="CU25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW25" t="n">
         <v>0</v>
@@ -9514,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="DA25" t="n">
         <v>0</v>
@@ -9529,22 +9529,22 @@
         <v>0</v>
       </c>
       <c r="DE25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DF25" t="n">
-        <v>475</v>
+        <v>146</v>
       </c>
       <c r="DG25" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="DH25" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2161536</v>
+        <v>2392750</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
@@ -9552,363 +9552,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>0.2948</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bundesliga</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FC Bayern München</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Jonas Urbig</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1130647</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>405</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.01956006</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>232</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>155</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>84.23913043478299</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>184</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>139</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>30</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>9</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>16</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>6</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>5</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>52</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>146</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>38</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>2392750</v>
-      </c>
-      <c r="DK26" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL26" t="n">
-        <v>1.0197</v>
+        <v>1.0877</v>
       </c>
     </row>
   </sheetData>
